--- a/Invesco/Invesco-MSCI-USA.xlsx
+++ b/Invesco/Invesco-MSCI-USA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Invesco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25EFFC07-BAD1-4BD2-9C81-6F1B41B3B703}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE109C95-601E-4051-A34B-5BA34964E8EB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>Kostenverlagingen</t>
   </si>
   <si>
-    <t>Fiscaal jaar loopt anders als boekjaar</t>
-  </si>
-  <si>
     <t>2018 geen swap fee gemeld</t>
+  </si>
+  <si>
+    <t>Let op: Fiscaal jaar loopt anders als boekjaar</t>
   </si>
 </sst>
 </file>
@@ -156,9 +156,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
         <v>2020</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">

--- a/Invesco/Invesco-MSCI-USA.xlsx
+++ b/Invesco/Invesco-MSCI-USA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Invesco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE109C95-601E-4051-A34B-5BA34964E8EB}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{097F9F53-D374-4045-A4B1-6CAA4493E24E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>TER</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Let op: Fiscaal jaar loopt anders als boekjaar</t>
+  </si>
+  <si>
+    <t>https://etf.invesco.com/nl/institutional/en/product/invesco-msci-usa-ucits-etf-acc/performance</t>
+  </si>
+  <si>
+    <t>2021: kan geen swap fee vinden, staat alleen op de site</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +124,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,12 +150,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,8 +169,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -436,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,16 +466,17 @@
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J1" s="8" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="8">
         <v>2014</v>
       </c>
@@ -480,17 +498,20 @@
       <c r="H2" s="8">
         <v>2020</v>
       </c>
-      <c r="J2" s="3">
+      <c r="I2" s="8">
+        <v>2021</v>
+      </c>
+      <c r="K2" s="3">
         <v>43102</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -516,50 +537,57 @@
       <c r="H3" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="I3" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K3" s="3">
         <v>43613</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
+        <f>Rendement!D11</f>
+        <v>0.12684074625681874</v>
+      </c>
+      <c r="C4" s="1">
         <f>Rendement!D10</f>
-        <v>0.12684074625681874</v>
-      </c>
-      <c r="C4" s="1">
+        <v>6.995604773747467E-3</v>
+      </c>
+      <c r="D4" s="1">
         <f>Rendement!D9</f>
-        <v>6.995604773747467E-3</v>
-      </c>
-      <c r="D4" s="1">
+        <v>0.10907265815215068</v>
+      </c>
+      <c r="E4" s="1">
         <f>Rendement!D8</f>
-        <v>0.10907265815215068</v>
-      </c>
-      <c r="E4" s="1">
+        <v>0.21178567239535101</v>
+      </c>
+      <c r="F4" s="1">
         <f>Rendement!D7</f>
-        <v>0.21178567239535101</v>
-      </c>
-      <c r="F4" s="1">
+        <v>-4.6835068152760437E-2</v>
+      </c>
+      <c r="G4" s="1">
         <f>Rendement!D6</f>
-        <v>-4.6835068152760437E-2</v>
-      </c>
-      <c r="G4" s="1">
+        <v>0.31472954457270352</v>
+      </c>
+      <c r="H4" s="1">
         <f>Rendement!D5</f>
-        <v>0.31472954457270352</v>
-      </c>
-      <c r="H4" s="1">
+        <v>0.21262192668662605</v>
+      </c>
+      <c r="I4" s="1">
         <f>Rendement!D4</f>
-        <v>0.21262192668662605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.26859062176466281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -584,8 +612,11 @@
       <c r="H5" s="1">
         <v>0.2137</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>0.2697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -617,11 +648,15 @@
         <f>H5-H4</f>
         <v>1.0780733133739506E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <f>I5-I4</f>
+        <v>1.1093782353371884E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -653,8 +688,12 @@
         <f>H6-H3-H17</f>
         <v>1.7456441276590744E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <f>I6-I3-I17</f>
+        <v>2.0937823533718835E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -662,8 +701,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -671,8 +711,9 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -680,8 +721,9 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
@@ -691,11 +733,14 @@
       <c r="H12" s="8">
         <v>2020</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I12" s="8">
+        <v>2021</v>
+      </c>
+      <c r="K12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>0</v>
       </c>
@@ -707,11 +752,14 @@
         <f>H3</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I13" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -726,8 +774,14 @@
       <c r="H14" s="7">
         <v>545356</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="7">
+        <v>1308526</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -747,8 +801,12 @@
         <f>H14/H13</f>
         <v>1090712000</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I15" s="7">
+        <f>I14/I13</f>
+        <v>2617052000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -759,7 +817,7 @@
         <v>440112</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17" s="6">
         <f>G16/G15</f>
         <v>3.3518367878176552E-4</v>
@@ -767,6 +825,9 @@
       <c r="H17" s="6">
         <f>H16/H15</f>
         <v>4.0350890060804318E-4</v>
+      </c>
+      <c r="I17" s="6">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
   </sheetData>
@@ -779,152 +840,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1586E305-5D1D-495E-B105-DF0B155455C9}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
-        <v>44286</v>
-      </c>
-      <c r="C2">
-        <v>110.9307</v>
-      </c>
-      <c r="D2" s="5">
-        <f>(C2-C4)/C4</f>
-        <v>5.4613679944403352E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>44196</v>
+        <v>44561</v>
       </c>
       <c r="C4">
-        <v>105.1861</v>
+        <v>133.43809999999999</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D12" si="0">(C4-C5)/C5</f>
-        <v>0.21262192668662605</v>
+        <f t="shared" ref="D4:D13" si="0">(C4-C5)/C5</f>
+        <v>0.26859062176466281</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="C5">
-        <v>86.742699999999999</v>
+        <v>105.1861</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0.31472954457270352</v>
+        <v>0.21262192668662605</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <v>43465</v>
+        <v>43830</v>
       </c>
       <c r="C6">
-        <v>65.977599999999995</v>
+        <v>86.742699999999999</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>-4.6835068152760437E-2</v>
+        <v>0.31472954457270352</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>43098</v>
+        <v>43465</v>
       </c>
       <c r="C7">
-        <v>69.219499999999996</v>
+        <v>65.977599999999995</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0.21178567239535101</v>
+        <v>-4.6835068152760437E-2</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>42734</v>
+        <v>43098</v>
       </c>
       <c r="C8">
-        <v>57.121899999999997</v>
+        <v>69.219499999999996</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>0.10907265815215068</v>
+        <v>0.21178567239535101</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>42369</v>
+        <v>42734</v>
       </c>
       <c r="C9">
-        <v>51.504199999999997</v>
+        <v>57.121899999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>6.995604773747467E-3</v>
+        <v>0.10907265815215068</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>42004</v>
+        <v>42369</v>
       </c>
       <c r="C10">
-        <v>51.1464</v>
+        <v>51.504199999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>0.12684074625681874</v>
+        <v>6.995604773747467E-3</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>41639</v>
+        <v>42004</v>
       </c>
       <c r="C11">
-        <v>45.389200000000002</v>
+        <v>51.1464</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>0.31696885817164716</v>
+        <v>0.12684074625681874</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>41274</v>
+        <v>41639</v>
       </c>
       <c r="C12">
-        <v>34.4649</v>
+        <v>45.389200000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>0.14987255111300915</v>
+        <v>0.31696885817164716</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
+        <v>41274</v>
+      </c>
+      <c r="C13">
+        <v>34.4649</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14987255111300915</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>40907</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>29.972799999999999</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{08E2F6A0-8937-45CA-A618-CD9A4AA3B331}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Invesco/Invesco-MSCI-USA.xlsx
+++ b/Invesco/Invesco-MSCI-USA.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Invesco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{097F9F53-D374-4045-A4B1-6CAA4493E24E}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E5D511-007A-421C-ACB6-F9DC1008A098}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="3330" windowWidth="29385" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kosten" sheetId="1" r:id="rId1"/>
-    <sheet name="Rendement" sheetId="2" r:id="rId2"/>
+    <sheet name="Costs" sheetId="1" r:id="rId1"/>
+    <sheet name="Performance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,15 +40,9 @@
     <t>TER</t>
   </si>
   <si>
-    <t>naar 0,05%</t>
-  </si>
-  <si>
     <t>was 0,19%</t>
   </si>
   <si>
-    <t>naar 0,19%</t>
-  </si>
-  <si>
     <t>was 0,30%</t>
   </si>
   <si>
@@ -70,25 +64,31 @@
     <t>Operating expense</t>
   </si>
   <si>
-    <t>Gem vermogen</t>
-  </si>
-  <si>
-    <t>Fiscaal jaar (1-12)</t>
-  </si>
-  <si>
-    <t>Kostenverlagingen</t>
-  </si>
-  <si>
-    <t>2018 geen swap fee gemeld</t>
-  </si>
-  <si>
-    <t>Let op: Fiscaal jaar loopt anders als boekjaar</t>
-  </si>
-  <si>
     <t>https://etf.invesco.com/nl/institutional/en/product/invesco-msci-usa-ucits-etf-acc/performance</t>
   </si>
   <si>
-    <t>2021: kan geen swap fee vinden, staat alleen op de site</t>
+    <t>Fiscal year (1-12)</t>
+  </si>
+  <si>
+    <t>Average AUM</t>
+  </si>
+  <si>
+    <t>! Fiscal year different from calendar year</t>
+  </si>
+  <si>
+    <t>2018 can't find swap fee</t>
+  </si>
+  <si>
+    <t>2021: can't find swap fee, got the number from the site</t>
+  </si>
+  <si>
+    <t>Cost lowerings</t>
+  </si>
+  <si>
+    <t>to 0,19%</t>
+  </si>
+  <si>
+    <t>to 0,05%</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K1" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -505,10 +505,10 @@
         <v>43102</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -544,52 +544,52 @@
         <v>43613</v>
       </c>
       <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
         <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <f>Rendement!D11</f>
+        <f>Performance!D11</f>
         <v>0.12684074625681874</v>
       </c>
       <c r="C4" s="1">
-        <f>Rendement!D10</f>
+        <f>Performance!D10</f>
         <v>6.995604773747467E-3</v>
       </c>
       <c r="D4" s="1">
-        <f>Rendement!D9</f>
+        <f>Performance!D9</f>
         <v>0.10907265815215068</v>
       </c>
       <c r="E4" s="1">
-        <f>Rendement!D8</f>
+        <f>Performance!D8</f>
         <v>0.21178567239535101</v>
       </c>
       <c r="F4" s="1">
-        <f>Rendement!D7</f>
+        <f>Performance!D7</f>
         <v>-4.6835068152760437E-2</v>
       </c>
       <c r="G4" s="1">
-        <f>Rendement!D6</f>
+        <f>Performance!D6</f>
         <v>0.31472954457270352</v>
       </c>
       <c r="H4" s="1">
-        <f>Rendement!D5</f>
+        <f>Performance!D5</f>
         <v>0.21262192668662605</v>
       </c>
       <c r="I4" s="1">
-        <f>Rendement!D4</f>
+        <f>Performance!D4</f>
         <v>0.26859062176466281</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.1336</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:G6" si="0">B5-B4</f>
@@ -658,7 +658,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <f>B6-B3</f>
@@ -725,7 +725,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12" s="8">
         <v>2019</v>
@@ -737,7 +737,7 @@
         <v>2021</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -756,12 +756,12 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -778,7 +778,7 @@
         <v>1308526</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16">
         <v>25753</v>
@@ -852,7 +852,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5"/>
     </row>

--- a/Invesco/Invesco-MSCI-USA.xlsx
+++ b/Invesco/Invesco-MSCI-USA.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="302" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E5D511-007A-421C-ACB6-F9DC1008A098}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3330" windowWidth="29385" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20670" yWindow="2565" windowWidth="29385" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -455,9 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Invesco/Invesco-MSCI-USA.xlsx
+++ b/Invesco/Invesco-MSCI-USA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Invesco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E5D511-007A-421C-ACB6-F9DC1008A098}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C650B75-EA8D-45DC-B8E9-268CDF269DEE}"/>
   <bookViews>
-    <workbookView xWindow="20670" yWindow="2565" windowWidth="29385" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="2265" windowWidth="27270" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -168,7 +168,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -453,9 +452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -464,17 +465,17 @@
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="9" max="10" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K1" s="8" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="8">
         <v>2014</v>
       </c>
@@ -499,17 +500,20 @@
       <c r="I2" s="8">
         <v>2021</v>
       </c>
-      <c r="K2" s="3">
+      <c r="J2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="L2" s="3">
         <v>43102</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -538,54 +542,61 @@
       <c r="I3" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K3" s="3">
+      <c r="J3" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L3" s="3">
         <v>43613</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
+        <f>Performance!D12</f>
+        <v>0.12684074625681874</v>
+      </c>
+      <c r="C4" s="1">
         <f>Performance!D11</f>
-        <v>0.12684074625681874</v>
-      </c>
-      <c r="C4" s="1">
+        <v>6.995604773747467E-3</v>
+      </c>
+      <c r="D4" s="1">
         <f>Performance!D10</f>
-        <v>6.995604773747467E-3</v>
-      </c>
-      <c r="D4" s="1">
+        <v>0.10907265815215068</v>
+      </c>
+      <c r="E4" s="1">
         <f>Performance!D9</f>
-        <v>0.10907265815215068</v>
-      </c>
-      <c r="E4" s="1">
+        <v>0.21178567239535101</v>
+      </c>
+      <c r="F4" s="1">
         <f>Performance!D8</f>
-        <v>0.21178567239535101</v>
-      </c>
-      <c r="F4" s="1">
+        <v>-4.6835068152760437E-2</v>
+      </c>
+      <c r="G4" s="1">
         <f>Performance!D7</f>
-        <v>-4.6835068152760437E-2</v>
-      </c>
-      <c r="G4" s="1">
+        <v>0.31472954457270352</v>
+      </c>
+      <c r="H4" s="1">
         <f>Performance!D6</f>
-        <v>0.31472954457270352</v>
-      </c>
-      <c r="H4" s="1">
+        <v>0.21262192668662605</v>
+      </c>
+      <c r="I4" s="1">
         <f>Performance!D5</f>
-        <v>0.21262192668662605</v>
-      </c>
-      <c r="I4" s="1">
+        <v>0.26859062176466281</v>
+      </c>
+      <c r="J4" s="1">
         <f>Performance!D4</f>
-        <v>0.26859062176466281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.19533401629669486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -613,8 +624,11 @@
       <c r="I5" s="1">
         <v>0.2697</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <v>-0.1946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -650,11 +664,15 @@
         <f>I5-I4</f>
         <v>1.1093782353371884E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <f>J5-J4</f>
+        <v>7.3401629669486712E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -690,8 +708,9 @@
         <f>I6-I3-I17</f>
         <v>2.0937823533718835E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -700,8 +719,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -710,8 +730,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -720,8 +741,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -734,12 +756,13 @@
       <c r="I12" s="8">
         <v>2021</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J12" s="8"/>
+      <c r="L12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="5">
@@ -753,11 +776,12 @@
       <c r="I13" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" s="1"/>
+      <c r="L13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -775,11 +799,12 @@
       <c r="I14" s="7">
         <v>1308526</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" s="7"/>
+      <c r="L14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -803,8 +828,9 @@
         <f>I14/I13</f>
         <v>2617052000</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -815,7 +841,7 @@
         <v>440112</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" s="6">
         <f>G16/G15</f>
         <v>3.3518367878176552E-4</v>
@@ -827,6 +853,7 @@
       <c r="I17" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
+      <c r="J17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -836,10 +863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1586E305-5D1D-495E-B105-DF0B155455C9}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,139 +876,151 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>44561</v>
+        <v>44925</v>
       </c>
       <c r="C4">
-        <v>133.43809999999999</v>
+        <v>107.37309999999999</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D13" si="0">(C4-C5)/C5</f>
-        <v>0.26859062176466281</v>
+        <f t="shared" ref="D4:D14" si="0">(C4-C5)/C5</f>
+        <v>-0.19533401629669486</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>44196</v>
+        <v>44561</v>
       </c>
       <c r="C5">
-        <v>105.1861</v>
+        <v>133.43809999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0.21262192668662605</v>
+        <v>0.26859062176466281</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="C6">
-        <v>86.742699999999999</v>
+        <v>105.1861</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0.31472954457270352</v>
+        <v>0.21262192668662605</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>43465</v>
+        <v>43830</v>
       </c>
       <c r="C7">
-        <v>65.977599999999995</v>
+        <v>86.742699999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>-4.6835068152760437E-2</v>
+        <v>0.31472954457270352</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>43098</v>
+        <v>43465</v>
       </c>
       <c r="C8">
-        <v>69.219499999999996</v>
+        <v>65.977599999999995</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>0.21178567239535101</v>
+        <v>-4.6835068152760437E-2</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>42734</v>
+        <v>43098</v>
       </c>
       <c r="C9">
-        <v>57.121899999999997</v>
+        <v>69.219499999999996</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0.10907265815215068</v>
+        <v>0.21178567239535101</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>42369</v>
+        <v>42734</v>
       </c>
       <c r="C10">
-        <v>51.504199999999997</v>
+        <v>57.121899999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>6.995604773747467E-3</v>
+        <v>0.10907265815215068</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>42004</v>
+        <v>42369</v>
       </c>
       <c r="C11">
-        <v>51.1464</v>
+        <v>51.504199999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>0.12684074625681874</v>
+        <v>6.995604773747467E-3</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>41639</v>
+        <v>42004</v>
       </c>
       <c r="C12">
-        <v>45.389200000000002</v>
+        <v>51.1464</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>0.31696885817164716</v>
+        <v>0.12684074625681874</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>41274</v>
+        <v>41639</v>
       </c>
       <c r="C13">
-        <v>34.4649</v>
+        <v>45.389200000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>0.14987255111300915</v>
+        <v>0.31696885817164716</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
+        <v>41274</v>
+      </c>
+      <c r="C14">
+        <v>34.4649</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14987255111300915</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>40907</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>29.972799999999999</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Invesco/Invesco-MSCI-USA.xlsx
+++ b/Invesco/Invesco-MSCI-USA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
     <sheet name="Performance" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -96,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -153,7 +155,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
@@ -163,18 +165,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Komma" xfId="2" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,28 +456,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.234375" customWidth="1"/>
+    <col min="2" max="2" width="11.02734375" customWidth="1"/>
+    <col min="6" max="6" width="9.28125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.71875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.27734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.27734375" customWidth="1"/>
+    <col min="12" max="12" width="20.17578125" customWidth="1"/>
+    <col min="13" max="13" width="13.44921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="8">
         <v>2014</v>
       </c>
@@ -513,7 +515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -555,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -596,7 +598,7 @@
         <v>-0.19533401629669486</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -628,7 +630,7 @@
         <v>-0.1946</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -669,10 +671,10 @@
         <v>7.3401629669486712E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -710,7 +712,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -721,7 +723,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -732,7 +734,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -743,7 +745,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -761,7 +763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -781,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -804,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -830,7 +832,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -841,7 +843,7 @@
         <v>440112</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G17" s="6">
         <f>G16/G15</f>
         <v>3.3518367878176552E-4</v>
@@ -869,19 +871,19 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.71875" customWidth="1"/>
+    <col min="4" max="4" width="16.6796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44925</v>
       </c>
@@ -893,7 +895,7 @@
         <v>-0.19533401629669486</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44561</v>
       </c>
@@ -905,7 +907,7 @@
         <v>0.26859062176466281</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44196</v>
       </c>
@@ -917,7 +919,7 @@
         <v>0.21262192668662605</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>43830</v>
       </c>
@@ -929,7 +931,7 @@
         <v>0.31472954457270352</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>43465</v>
       </c>
@@ -941,7 +943,7 @@
         <v>-4.6835068152760437E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>43098</v>
       </c>
@@ -953,7 +955,7 @@
         <v>0.21178567239535101</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>42734</v>
       </c>
@@ -965,7 +967,7 @@
         <v>0.10907265815215068</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>42369</v>
       </c>
@@ -977,7 +979,7 @@
         <v>6.995604773747467E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>42004</v>
       </c>
@@ -989,7 +991,7 @@
         <v>0.12684074625681874</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>41639</v>
       </c>
@@ -1001,7 +1003,7 @@
         <v>0.31696885817164716</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>41274</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>0.14987255111300915</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>40907</v>
       </c>
